--- a/STM - Timekeeping - CUR_TE_ALLOW.xlsx
+++ b/STM - Timekeeping - CUR_TE_ALLOW.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malu1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F38F02-8C92-4E1D-BFDB-25E08674D1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="STM Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,13 @@
     <sheet name="STM - CUR_TE_ALLOW  " sheetId="4" r:id="rId5"/>
     <sheet name="SQL" sheetId="7" r:id="rId6"/>
     <sheet name="TEST PLAN" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Change Log'!$C$3:$C$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Decision Log'!$C$3:$C$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="335">
   <si>
     <t>Project Summary</t>
   </si>
@@ -1080,11 +1075,14 @@
   <si>
     <t>START_TIME</t>
   </si>
+  <si>
+    <t>sssss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-4009]General"/>
@@ -1815,14 +1813,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="dateFormat" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Excel Built-in Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="dateFormat" xfId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="7"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Style 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Style 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2126,38 +2124,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="23.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="23.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.08984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="6" customWidth="1"/>
     <col min="8" max="8" width="22" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="41.6640625" style="6" customWidth="1"/>
-    <col min="13" max="14" width="9.6640625" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="6"/>
+    <col min="9" max="9" width="15.08984375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.36328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="41.6328125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="9.6328125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2173,7 +2171,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2189,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="104"/>
       <c r="B3" s="105"/>
       <c r="C3" s="105"/>
@@ -2207,7 +2205,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="105"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
@@ -2223,7 +2221,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="105"/>
       <c r="B5" s="105"/>
       <c r="C5" s="105"/>
@@ -2239,7 +2237,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2255,7 +2253,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2271,7 +2269,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A8" s="103" t="s">
         <v>1</v>
       </c>
@@ -2289,7 +2287,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2309,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="78">
         <v>1</v>
       </c>
@@ -2329,7 +2327,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
       <c r="B11" s="16"/>
       <c r="C11" s="99"/>
@@ -2345,7 +2343,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="78"/>
       <c r="B12" s="16"/>
       <c r="C12" s="99"/>
@@ -2361,7 +2359,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="16"/>
       <c r="C13" s="99"/>
@@ -2377,7 +2375,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="78"/>
       <c r="B14" s="16"/>
       <c r="C14" s="99"/>
@@ -2393,7 +2391,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
       <c r="B15" s="16"/>
       <c r="C15" s="99"/>
@@ -2409,7 +2407,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2425,7 +2423,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2441,7 +2439,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A18" s="103" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2457,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -2479,7 +2477,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="17" t="s">
         <v>7</v>
@@ -2497,7 +2495,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
       <c r="B21" s="17" t="s">
         <v>8</v>
@@ -2517,7 +2515,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:14" s="55" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="55" customFormat="1" ht="28.75" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
       <c r="B22" s="51" t="s">
         <v>10</v>
@@ -2547,7 +2545,7 @@
       <c r="K22" s="54"/>
       <c r="L22" s="54"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="78">
         <v>1</v>
       </c>
@@ -2565,7 +2563,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
       <c r="B24" s="17"/>
       <c r="C24" s="19"/>
@@ -2579,7 +2577,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="78"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2593,7 +2591,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="78"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2607,7 +2605,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="78"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2621,7 +2619,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="78"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2635,7 +2633,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="78"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2649,7 +2647,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="78"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2663,7 +2661,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="78"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2677,7 +2675,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="78"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2691,7 +2689,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="78"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2705,7 +2703,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="78"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -2719,7 +2717,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2735,7 +2733,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2751,7 +2749,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2767,7 +2765,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2783,7 +2781,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2799,7 +2797,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2815,7 +2813,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2831,7 +2829,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2847,7 +2845,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2863,7 +2861,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2879,7 +2877,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2895,7 +2893,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2911,7 +2909,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2927,7 +2925,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2943,7 +2941,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2959,7 +2957,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2975,7 +2973,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2991,7 +2989,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3007,7 +3005,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3023,7 +3021,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3039,7 +3037,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3055,7 +3053,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3071,7 +3069,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3087,7 +3085,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3103,7 +3101,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3119,7 +3117,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3135,7 +3133,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3151,7 +3149,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3167,7 +3165,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3183,7 +3181,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3199,7 +3197,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3215,7 +3213,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3231,7 +3229,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3247,7 +3245,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3263,7 +3261,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3279,7 +3277,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3295,7 +3293,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3311,7 +3309,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3327,7 +3325,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3343,7 +3341,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3359,7 +3357,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3375,7 +3373,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3391,7 +3389,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3407,7 +3405,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3423,7 +3421,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3439,7 +3437,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3470,10 +3468,10 @@
     <mergeCell ref="C13:K13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" location="'Data Sources &amp; Targets'!A1" display="Data Sources &amp; Targets" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B21" location="'Change Log'!A1" display="Change Log" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B22" location="'Decision Log'!A1" display="Decision Log" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B23" location="'STM - CUR_TE_ALLOW  '!A1" display="CUR_TE_ALLOW " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B20" location="'Data Sources &amp; Targets'!A1" display="Data Sources &amp; Targets"/>
+    <hyperlink ref="B21" location="'Change Log'!A1" display="Change Log"/>
+    <hyperlink ref="B22" location="'Decision Log'!A1" display="Decision Log"/>
+    <hyperlink ref="B23" location="'STM - CUR_TE_ALLOW  '!A1" display="CUR_TE_ALLOW "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3481,23 +3479,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="64.6640625" customWidth="1"/>
-    <col min="6" max="8" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="64.6328125" customWidth="1"/>
+    <col min="6" max="8" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
         <v>19</v>
       </c>
@@ -3508,7 +3506,7 @@
       <c r="F1" s="106"/>
       <c r="G1" s="106"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3540,7 +3538,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3549,7 +3547,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3558,7 +3556,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3567,7 +3565,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A9" s="106" t="s">
         <v>27</v>
       </c>
@@ -3578,7 +3576,7 @@
       <c r="F9" s="106"/>
       <c r="G9" s="106"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3610,7 +3608,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3619,7 +3617,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3628,7 +3626,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3637,7 +3635,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A17" s="106" t="s">
         <v>30</v>
       </c>
@@ -3648,7 +3646,7 @@
       <c r="F17" s="106"/>
       <c r="G17" s="106"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3680,7 +3678,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3689,7 +3687,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3698,7 +3696,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3719,23 +3717,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="6" width="64.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="6" width="64.6328125" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
         <v>33</v>
       </c>
@@ -3745,7 +3743,7 @@
       <c r="E1" s="106"/>
       <c r="F1" s="106"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3765,7 +3763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3775,7 +3773,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3783,7 +3781,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3791,7 +3789,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3799,7 +3797,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3807,7 +3805,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3815,7 +3813,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3823,7 +3821,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3831,7 +3829,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3839,7 +3837,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3847,7 +3845,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3855,7 +3853,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3863,7 +3861,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3871,7 +3869,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3879,7 +3877,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3887,7 +3885,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3895,7 +3893,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3903,7 +3901,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3911,7 +3909,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3928,25 +3926,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="48.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="64.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="6" width="48.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="64.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
         <v>39</v>
       </c>
@@ -3958,7 +3956,7 @@
       <c r="G1" s="106"/>
       <c r="H1" s="106"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3996,7 +3994,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4006,7 +4004,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4016,7 +4014,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4026,7 +4024,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4036,7 +4034,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4046,7 +4044,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4056,7 +4054,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4066,7 +4064,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4076,7 +4074,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4086,7 +4084,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4096,7 +4094,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4106,7 +4104,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4116,7 +4114,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4126,7 +4124,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4136,7 +4134,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4146,7 +4144,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4156,7 +4154,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4166,7 +4164,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4185,55 +4183,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="R153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="X131" sqref="X131:AD139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" style="39" customWidth="1"/>
-    <col min="9" max="12" width="3.109375" style="38" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="38" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" style="38" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="38" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.08984375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="3.08984375" style="39" customWidth="1"/>
+    <col min="9" max="12" width="3.08984375" style="38" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="27.36328125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="24.08984375" style="38" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" style="38" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="38" customWidth="1"/>
-    <col min="20" max="22" width="4.109375" style="38" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" style="38" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" style="38" customWidth="1"/>
-    <col min="25" max="25" width="29.44140625" style="38" customWidth="1"/>
-    <col min="26" max="26" width="31.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" style="38" customWidth="1"/>
-    <col min="28" max="28" width="10.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6328125" style="38" customWidth="1"/>
+    <col min="20" max="22" width="4.08984375" style="38" customWidth="1"/>
+    <col min="23" max="23" width="16.90625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="15.90625" style="38" customWidth="1"/>
+    <col min="25" max="25" width="29.453125" style="38" customWidth="1"/>
+    <col min="26" max="26" width="31.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6328125" style="38" customWidth="1"/>
+    <col min="28" max="28" width="10.08984375" style="38" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.88671875" style="38" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="38"/>
+    <col min="30" max="30" width="16.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.90625" style="38" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.90625" style="38" customWidth="1"/>
+    <col min="35" max="16384" width="9.08984375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="107" t="s">
         <v>47</v>
       </c>
@@ -4248,7 +4246,7 @@
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
       <c r="M3" s="38" t="s">
@@ -4296,7 +4294,7 @@
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
     </row>
-    <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A5" s="111" t="s">
         <v>51</v>
       </c>
@@ -4342,7 +4340,7 @@
       <c r="AG5" s="110"/>
       <c r="AH5" s="85"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>55</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -4494,7 +4492,7 @@
       <c r="AG7" s="80"/>
       <c r="AH7" s="86"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -4553,7 +4551,7 @@
       <c r="AG8" s="81"/>
       <c r="AH8" s="80"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -4612,7 +4610,7 @@
       <c r="AG9" s="81"/>
       <c r="AH9" s="80"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="62"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -4672,7 +4670,7 @@
       <c r="AG10" s="81"/>
       <c r="AH10" s="80"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="62"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -4731,7 +4729,7 @@
       <c r="AG11" s="81"/>
       <c r="AH11" s="80"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -4779,7 +4777,7 @@
       <c r="AG12" s="81"/>
       <c r="AH12" s="80"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -4838,7 +4836,7 @@
       <c r="AG13" s="81"/>
       <c r="AH13" s="80"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -4899,7 +4897,7 @@
       <c r="AG14" s="81"/>
       <c r="AH14" s="80"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -4947,7 +4945,7 @@
       <c r="AG15" s="80"/>
       <c r="AH15" s="80"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -4995,7 +4993,7 @@
       <c r="AG16" s="81"/>
       <c r="AH16" s="80"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -5055,7 +5053,7 @@
       <c r="AG17" s="80"/>
       <c r="AH17" s="80"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -5103,7 +5101,7 @@
       <c r="AG18" s="80"/>
       <c r="AH18" s="80"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -5151,7 +5149,7 @@
       <c r="AG19" s="80"/>
       <c r="AH19" s="80"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -5201,7 +5199,7 @@
       <c r="AG20" s="80"/>
       <c r="AH20" s="80"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -5249,7 +5247,7 @@
       <c r="AG21" s="80"/>
       <c r="AH21" s="80"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -5308,7 +5306,7 @@
       <c r="AG22" s="80"/>
       <c r="AH22" s="80"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -5356,7 +5354,7 @@
       <c r="AG23" s="80"/>
       <c r="AH23" s="80"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -5415,7 +5413,7 @@
       <c r="AG24" s="80"/>
       <c r="AH24" s="80"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -5474,7 +5472,7 @@
       <c r="AG25" s="80"/>
       <c r="AH25" s="80"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -5533,7 +5531,7 @@
       <c r="AG26" s="80"/>
       <c r="AH26" s="80"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -5592,7 +5590,7 @@
       <c r="AG27" s="80"/>
       <c r="AH27" s="80"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -5651,7 +5649,7 @@
       <c r="AG28" s="80"/>
       <c r="AH28" s="80"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -5710,7 +5708,7 @@
       <c r="AG29" s="80"/>
       <c r="AH29" s="80"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -5769,7 +5767,7 @@
       <c r="AG30" s="80"/>
       <c r="AH30" s="80"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -5831,7 +5829,7 @@
       <c r="AG31" s="80"/>
       <c r="AH31" s="80"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -5879,7 +5877,7 @@
       <c r="AG32" s="80"/>
       <c r="AH32" s="80"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -5929,7 +5927,7 @@
       <c r="AG33" s="80"/>
       <c r="AH33" s="80"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -5977,7 +5975,7 @@
       <c r="AG34" s="80"/>
       <c r="AH34" s="80"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -6039,7 +6037,7 @@
       <c r="AG35" s="80"/>
       <c r="AH35" s="80"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -6098,7 +6096,7 @@
       <c r="AG36" s="80"/>
       <c r="AH36" s="80"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -6157,7 +6155,7 @@
       <c r="AG37" s="80"/>
       <c r="AH37" s="80"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -6216,7 +6214,7 @@
       <c r="AG38" s="80"/>
       <c r="AH38" s="80"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -6266,7 +6264,7 @@
       <c r="AG39" s="80"/>
       <c r="AH39" s="80"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -6314,7 +6312,7 @@
       <c r="AG40" s="80"/>
       <c r="AH40" s="80"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -6373,7 +6371,7 @@
       <c r="AG41" s="80"/>
       <c r="AH41" s="80"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -6432,7 +6430,7 @@
       <c r="AG42" s="80"/>
       <c r="AH42" s="80"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -6482,7 +6480,7 @@
       <c r="AG43" s="80"/>
       <c r="AH43" s="80"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -6530,7 +6528,7 @@
       <c r="AG44" s="80"/>
       <c r="AH44" s="80"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -6589,7 +6587,7 @@
       <c r="AG45" s="80"/>
       <c r="AH45" s="80"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -6637,7 +6635,7 @@
       <c r="AG46" s="80"/>
       <c r="AH46" s="80"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -6696,7 +6694,7 @@
       <c r="AG47" s="80"/>
       <c r="AH47" s="80"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -6757,7 +6755,7 @@
       <c r="AG48" s="80"/>
       <c r="AH48" s="80"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -6816,7 +6814,7 @@
       <c r="AG49" s="80"/>
       <c r="AH49" s="80"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -6864,7 +6862,7 @@
       <c r="AG50" s="80"/>
       <c r="AH50" s="80"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -6925,7 +6923,7 @@
       <c r="AG51" s="80"/>
       <c r="AH51" s="80"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -6973,7 +6971,7 @@
       <c r="AG52" s="80"/>
       <c r="AH52" s="80"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -7032,7 +7030,7 @@
       <c r="AG53" s="80"/>
       <c r="AH53" s="80"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -7080,7 +7078,7 @@
       <c r="AG54" s="80"/>
       <c r="AH54" s="80"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -7128,7 +7126,7 @@
       <c r="AG55" s="80"/>
       <c r="AH55" s="80"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -7187,7 +7185,7 @@
       <c r="AG56" s="80"/>
       <c r="AH56" s="80"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -7247,7 +7245,7 @@
       <c r="AG57" s="80"/>
       <c r="AH57" s="80"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -7295,7 +7293,7 @@
       <c r="AG58" s="80"/>
       <c r="AH58" s="80"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -7343,7 +7341,7 @@
       <c r="AG59" s="80"/>
       <c r="AH59" s="80"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M60" s="93" t="s">
         <v>259</v>
       </c>
@@ -7387,7 +7385,7 @@
       <c r="AG60" s="80"/>
       <c r="AH60" s="80"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W61" s="75"/>
       <c r="X61" s="88" t="s">
         <v>68</v>
@@ -7413,7 +7411,7 @@
       <c r="AG61" s="80"/>
       <c r="AH61" s="80"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W62" s="75"/>
       <c r="X62" s="88" t="s">
         <v>68</v>
@@ -7439,7 +7437,7 @@
       <c r="AG62" s="80"/>
       <c r="AH62" s="80"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W63" s="75"/>
       <c r="X63" s="88" t="s">
         <v>68</v>
@@ -7467,7 +7465,7 @@
       <c r="AG63" s="80"/>
       <c r="AH63" s="80"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M64" s="93" t="s">
         <v>259</v>
       </c>
@@ -7511,7 +7509,7 @@
       <c r="AG64" s="80"/>
       <c r="AH64" s="80"/>
     </row>
-    <row r="65" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W65" s="75"/>
       <c r="X65" s="88" t="s">
         <v>68</v>
@@ -7539,7 +7537,7 @@
       <c r="AG65" s="80"/>
       <c r="AH65" s="80"/>
     </row>
-    <row r="66" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W66" s="75"/>
       <c r="X66" s="88" t="s">
         <v>68</v>
@@ -7565,7 +7563,7 @@
       <c r="AG66" s="80"/>
       <c r="AH66" s="80"/>
     </row>
-    <row r="67" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W67" s="75"/>
       <c r="X67" s="88" t="s">
         <v>68</v>
@@ -7593,7 +7591,7 @@
       <c r="AG67" s="80"/>
       <c r="AH67" s="80"/>
     </row>
-    <row r="68" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W68" s="75"/>
       <c r="X68" s="88" t="s">
         <v>68</v>
@@ -7619,7 +7617,7 @@
       <c r="AG68" s="80"/>
       <c r="AH68" s="80"/>
     </row>
-    <row r="69" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W69" s="75"/>
       <c r="X69" s="88" t="s">
         <v>68</v>
@@ -7645,7 +7643,7 @@
       <c r="AG69" s="80"/>
       <c r="AH69" s="80"/>
     </row>
-    <row r="70" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W70" s="75"/>
       <c r="X70" s="88" t="s">
         <v>68</v>
@@ -7671,7 +7669,7 @@
       <c r="AG70" s="80"/>
       <c r="AH70" s="80"/>
     </row>
-    <row r="71" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W71" s="75"/>
       <c r="X71" s="88" t="s">
         <v>68</v>
@@ -7697,7 +7695,7 @@
       <c r="AG71" s="80"/>
       <c r="AH71" s="80"/>
     </row>
-    <row r="72" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M72" s="93" t="s">
         <v>259</v>
       </c>
@@ -7743,7 +7741,7 @@
       <c r="AG72" s="80"/>
       <c r="AH72" s="80"/>
     </row>
-    <row r="73" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W73" s="75"/>
       <c r="X73" s="88" t="s">
         <v>68</v>
@@ -7769,7 +7767,7 @@
       <c r="AG73" s="80"/>
       <c r="AH73" s="80"/>
     </row>
-    <row r="74" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W74" s="75"/>
       <c r="X74" s="88" t="s">
         <v>68</v>
@@ -7795,7 +7793,7 @@
       <c r="AG74" s="80"/>
       <c r="AH74" s="80"/>
     </row>
-    <row r="75" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W75" s="75"/>
       <c r="X75" s="88" t="s">
         <v>68</v>
@@ -7821,7 +7819,7 @@
       <c r="AG75" s="80"/>
       <c r="AH75" s="80"/>
     </row>
-    <row r="76" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W76" s="75"/>
       <c r="X76" s="88" t="s">
         <v>68</v>
@@ -7847,7 +7845,7 @@
       <c r="AG76" s="80"/>
       <c r="AH76" s="80"/>
     </row>
-    <row r="77" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W77" s="75"/>
       <c r="X77" s="88" t="s">
         <v>68</v>
@@ -7873,7 +7871,7 @@
       <c r="AG77" s="80"/>
       <c r="AH77" s="80"/>
     </row>
-    <row r="78" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W78" s="75"/>
       <c r="X78" s="88" t="s">
         <v>68</v>
@@ -7901,7 +7899,7 @@
       <c r="AG78" s="80"/>
       <c r="AH78" s="80"/>
     </row>
-    <row r="79" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W79" s="75"/>
       <c r="X79" s="88" t="s">
         <v>68</v>
@@ -7929,7 +7927,7 @@
       <c r="AG79" s="80"/>
       <c r="AH79" s="80"/>
     </row>
-    <row r="80" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W80" s="75"/>
       <c r="X80" s="88" t="s">
         <v>68</v>
@@ -7955,7 +7953,7 @@
       <c r="AG80" s="80"/>
       <c r="AH80" s="80"/>
     </row>
-    <row r="81" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W81" s="75"/>
       <c r="X81" s="88" t="s">
         <v>68</v>
@@ -7981,7 +7979,7 @@
       <c r="AG81" s="80"/>
       <c r="AH81" s="80"/>
     </row>
-    <row r="82" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W82" s="75"/>
       <c r="X82" s="88" t="s">
         <v>68</v>
@@ -8007,7 +8005,7 @@
       <c r="AG82" s="80"/>
       <c r="AH82" s="80"/>
     </row>
-    <row r="83" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W83" s="75"/>
       <c r="X83" s="88" t="s">
         <v>68</v>
@@ -8033,7 +8031,7 @@
       <c r="AG83" s="80"/>
       <c r="AH83" s="80"/>
     </row>
-    <row r="84" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W84" s="75"/>
       <c r="X84" s="88" t="s">
         <v>68</v>
@@ -8059,7 +8057,7 @@
       <c r="AG84" s="80"/>
       <c r="AH84" s="80"/>
     </row>
-    <row r="85" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W85" s="75"/>
       <c r="X85" s="88" t="s">
         <v>68</v>
@@ -8087,7 +8085,7 @@
       <c r="AG85" s="80"/>
       <c r="AH85" s="80"/>
     </row>
-    <row r="86" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W86" s="75"/>
       <c r="X86" s="88" t="s">
         <v>68</v>
@@ -8115,7 +8113,7 @@
       <c r="AG86" s="80"/>
       <c r="AH86" s="80"/>
     </row>
-    <row r="87" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W87" s="75"/>
       <c r="X87" s="88" t="s">
         <v>68</v>
@@ -8141,7 +8139,7 @@
       <c r="AG87" s="80"/>
       <c r="AH87" s="80"/>
     </row>
-    <row r="88" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M88" s="93" t="s">
         <v>259</v>
       </c>
@@ -8187,7 +8185,7 @@
       <c r="AG88" s="80"/>
       <c r="AH88" s="80"/>
     </row>
-    <row r="89" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W89" s="75"/>
       <c r="X89" s="88" t="s">
         <v>68</v>
@@ -8213,7 +8211,7 @@
       <c r="AG89" s="80"/>
       <c r="AH89" s="80"/>
     </row>
-    <row r="90" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W90" s="75"/>
       <c r="X90" s="88" t="s">
         <v>68</v>
@@ -8239,7 +8237,7 @@
       <c r="AG90" s="80"/>
       <c r="AH90" s="80"/>
     </row>
-    <row r="91" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M91" s="93" t="s">
         <v>259</v>
       </c>
@@ -8286,7 +8284,7 @@
       <c r="AG91" s="80"/>
       <c r="AH91" s="80"/>
     </row>
-    <row r="92" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W92" s="75"/>
       <c r="X92" s="88" t="s">
         <v>68</v>
@@ -8314,7 +8312,7 @@
       <c r="AG92" s="80"/>
       <c r="AH92" s="80"/>
     </row>
-    <row r="93" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W93" s="75"/>
       <c r="X93" s="88" t="s">
         <v>68</v>
@@ -8340,7 +8338,7 @@
       <c r="AG93" s="80"/>
       <c r="AH93" s="80"/>
     </row>
-    <row r="94" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W94" s="75"/>
       <c r="X94" s="88" t="s">
         <v>68</v>
@@ -8366,7 +8364,7 @@
       <c r="AG94" s="80"/>
       <c r="AH94" s="80"/>
     </row>
-    <row r="95" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W95" s="75"/>
       <c r="X95" s="88" t="s">
         <v>68</v>
@@ -8392,7 +8390,7 @@
       <c r="AG95" s="80"/>
       <c r="AH95" s="80"/>
     </row>
-    <row r="96" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W96" s="75"/>
       <c r="X96" s="88" t="s">
         <v>68</v>
@@ -8420,7 +8418,7 @@
       <c r="AG96" s="80"/>
       <c r="AH96" s="80"/>
     </row>
-    <row r="97" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="97" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W97" s="75"/>
       <c r="X97" s="88" t="s">
         <v>68</v>
@@ -8446,7 +8444,7 @@
       <c r="AG97" s="80"/>
       <c r="AH97" s="80"/>
     </row>
-    <row r="98" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="98" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W98" s="75"/>
       <c r="X98" s="88" t="s">
         <v>68</v>
@@ -8472,7 +8470,7 @@
       <c r="AG98" s="80"/>
       <c r="AH98" s="80"/>
     </row>
-    <row r="99" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="99" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M99" s="93" t="s">
         <v>259</v>
       </c>
@@ -8516,7 +8514,7 @@
       <c r="AG99" s="80"/>
       <c r="AH99" s="80"/>
     </row>
-    <row r="100" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="100" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W100" s="75"/>
       <c r="X100" s="88" t="s">
         <v>68</v>
@@ -8542,7 +8540,7 @@
       <c r="AG100" s="80"/>
       <c r="AH100" s="80"/>
     </row>
-    <row r="101" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="101" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W101" s="75"/>
       <c r="X101" s="88" t="s">
         <v>68</v>
@@ -8568,7 +8566,7 @@
       <c r="AG101" s="80"/>
       <c r="AH101" s="80"/>
     </row>
-    <row r="102" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="102" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W102" s="75"/>
       <c r="X102" s="88" t="s">
         <v>68</v>
@@ -8596,7 +8594,7 @@
       <c r="AG102" s="80"/>
       <c r="AH102" s="80"/>
     </row>
-    <row r="103" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="103" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M103" s="93" t="s">
         <v>259</v>
       </c>
@@ -8640,7 +8638,7 @@
       <c r="AG103" s="80"/>
       <c r="AH103" s="80"/>
     </row>
-    <row r="104" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="104" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W104" s="75"/>
       <c r="X104" s="88" t="s">
         <v>68</v>
@@ -8666,7 +8664,7 @@
       <c r="AG104" s="80"/>
       <c r="AH104" s="80"/>
     </row>
-    <row r="105" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="105" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W105" s="75"/>
       <c r="X105" s="88" t="s">
         <v>68</v>
@@ -8692,7 +8690,7 @@
       <c r="AG105" s="80"/>
       <c r="AH105" s="80"/>
     </row>
-    <row r="106" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="106" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W106" s="75"/>
       <c r="X106" s="88" t="s">
         <v>68</v>
@@ -8718,7 +8716,7 @@
       <c r="AG106" s="80"/>
       <c r="AH106" s="80"/>
     </row>
-    <row r="107" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="107" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M107" s="93" t="s">
         <v>259</v>
       </c>
@@ -8762,7 +8760,7 @@
       <c r="AG107" s="80"/>
       <c r="AH107" s="80"/>
     </row>
-    <row r="108" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="108" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M108" s="93" t="s">
         <v>259</v>
       </c>
@@ -8806,7 +8804,7 @@
       <c r="AG108" s="80"/>
       <c r="AH108" s="80"/>
     </row>
-    <row r="109" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="109" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W109" s="75"/>
       <c r="X109" s="88" t="s">
         <v>68</v>
@@ -8832,7 +8830,7 @@
       <c r="AG109" s="80"/>
       <c r="AH109" s="80"/>
     </row>
-    <row r="110" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W110" s="75"/>
       <c r="X110" s="88" t="s">
         <v>68</v>
@@ -8858,7 +8856,7 @@
       <c r="AG110" s="80"/>
       <c r="AH110" s="80"/>
     </row>
-    <row r="111" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W111" s="75"/>
       <c r="X111" s="88" t="s">
         <v>68</v>
@@ -8886,7 +8884,7 @@
       <c r="AG111" s="80"/>
       <c r="AH111" s="80"/>
     </row>
-    <row r="112" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="112" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W112" s="75"/>
       <c r="X112" s="88" t="s">
         <v>68</v>
@@ -8912,7 +8910,7 @@
       <c r="AG112" s="80"/>
       <c r="AH112" s="80"/>
     </row>
-    <row r="113" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M113" s="93" t="s">
         <v>259</v>
       </c>
@@ -8956,7 +8954,7 @@
       <c r="AG113" s="80"/>
       <c r="AH113" s="80"/>
     </row>
-    <row r="114" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W114" s="75"/>
       <c r="X114" s="88" t="s">
         <v>68</v>
@@ -8982,7 +8980,7 @@
       <c r="AG114" s="80"/>
       <c r="AH114" s="80"/>
     </row>
-    <row r="115" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W115" s="75"/>
       <c r="X115" s="88" t="s">
         <v>68</v>
@@ -9008,7 +9006,7 @@
       <c r="AG115" s="80"/>
       <c r="AH115" s="80"/>
     </row>
-    <row r="116" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W116" s="75"/>
       <c r="X116" s="88" t="s">
         <v>68</v>
@@ -9034,7 +9032,7 @@
       <c r="AG116" s="80"/>
       <c r="AH116" s="80"/>
     </row>
-    <row r="117" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="117" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W117" s="75"/>
       <c r="X117" s="88" t="s">
         <v>68</v>
@@ -9062,7 +9060,7 @@
       <c r="AG117" s="80"/>
       <c r="AH117" s="80"/>
     </row>
-    <row r="118" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="118" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M118" s="93" t="s">
         <v>259</v>
       </c>
@@ -9106,7 +9104,7 @@
       <c r="AG118" s="80"/>
       <c r="AH118" s="80"/>
     </row>
-    <row r="119" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W119" s="75"/>
       <c r="X119" s="88" t="s">
         <v>68</v>
@@ -9132,7 +9130,7 @@
       <c r="AG119" s="80"/>
       <c r="AH119" s="80"/>
     </row>
-    <row r="120" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W120" s="75"/>
       <c r="X120" s="88" t="s">
         <v>68</v>
@@ -9158,7 +9156,7 @@
       <c r="AG120" s="80"/>
       <c r="AH120" s="80"/>
     </row>
-    <row r="121" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W121" s="75"/>
       <c r="X121" s="88" t="s">
         <v>68</v>
@@ -9184,7 +9182,7 @@
       <c r="AG121" s="80"/>
       <c r="AH121" s="80"/>
     </row>
-    <row r="122" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="122" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W122" s="75"/>
       <c r="X122" s="88" t="s">
         <v>68</v>
@@ -9210,7 +9208,7 @@
       <c r="AG122" s="80"/>
       <c r="AH122" s="80"/>
     </row>
-    <row r="123" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W123" s="75"/>
       <c r="X123" s="88" t="s">
         <v>68</v>
@@ -9236,7 +9234,7 @@
       <c r="AG123" s="80"/>
       <c r="AH123" s="80"/>
     </row>
-    <row r="124" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W124" s="75"/>
       <c r="X124" s="88" t="s">
         <v>68</v>
@@ -9264,7 +9262,7 @@
       <c r="AG124" s="80"/>
       <c r="AH124" s="80"/>
     </row>
-    <row r="125" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="W125" s="75"/>
       <c r="X125" s="88" t="s">
         <v>68</v>
@@ -9290,7 +9288,7 @@
       <c r="AG125" s="80"/>
       <c r="AH125" s="80"/>
     </row>
-    <row r="126" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X126" s="88" t="s">
         <v>68</v>
       </c>
@@ -9315,7 +9313,7 @@
       <c r="AG126" s="80"/>
       <c r="AH126" s="80"/>
     </row>
-    <row r="127" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X127" s="88" t="s">
         <v>68</v>
       </c>
@@ -9340,7 +9338,7 @@
       <c r="AG127" s="80"/>
       <c r="AH127" s="80"/>
     </row>
-    <row r="128" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X128" s="88" t="s">
         <v>68</v>
       </c>
@@ -9367,7 +9365,7 @@
       <c r="AG128" s="80"/>
       <c r="AH128" s="80"/>
     </row>
-    <row r="129" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="129" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X129" s="88" t="s">
         <v>68</v>
       </c>
@@ -9392,7 +9390,7 @@
       <c r="AG129" s="80"/>
       <c r="AH129" s="80"/>
     </row>
-    <row r="130" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="130" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M130" s="93" t="s">
         <v>259</v>
       </c>
@@ -9435,7 +9433,7 @@
       <c r="AG130" s="80"/>
       <c r="AH130" s="80"/>
     </row>
-    <row r="131" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="131" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X131" s="88" t="s">
         <v>68</v>
       </c>
@@ -9460,7 +9458,7 @@
       <c r="AG131" s="80"/>
       <c r="AH131" s="80"/>
     </row>
-    <row r="132" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="132" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X132" s="88" t="s">
         <v>68</v>
       </c>
@@ -9487,7 +9485,7 @@
       <c r="AG132" s="80"/>
       <c r="AH132" s="80"/>
     </row>
-    <row r="133" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="133" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X133" s="88" t="s">
         <v>68</v>
       </c>
@@ -9512,7 +9510,7 @@
       <c r="AG133" s="80"/>
       <c r="AH133" s="80"/>
     </row>
-    <row r="134" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="134" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X134" s="88" t="s">
         <v>68</v>
       </c>
@@ -9537,7 +9535,7 @@
       <c r="AG134" s="80"/>
       <c r="AH134" s="80"/>
     </row>
-    <row r="135" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="135" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X135" s="88" t="s">
         <v>68</v>
       </c>
@@ -9562,7 +9560,7 @@
       <c r="AG135" s="80"/>
       <c r="AH135" s="80"/>
     </row>
-    <row r="136" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="136" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X136" s="88" t="s">
         <v>68</v>
       </c>
@@ -9589,7 +9587,7 @@
       <c r="AG136" s="80"/>
       <c r="AH136" s="80"/>
     </row>
-    <row r="137" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="137" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X137" s="88" t="s">
         <v>68</v>
       </c>
@@ -9614,7 +9612,7 @@
       <c r="AG137" s="80"/>
       <c r="AH137" s="80"/>
     </row>
-    <row r="138" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="138" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X138" s="88" t="s">
         <v>68</v>
       </c>
@@ -9639,7 +9637,7 @@
       <c r="AG138" s="80"/>
       <c r="AH138" s="80"/>
     </row>
-    <row r="139" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="139" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X139" s="88" t="s">
         <v>68</v>
       </c>
@@ -9664,7 +9662,7 @@
       <c r="AG139" s="80"/>
       <c r="AH139" s="80"/>
     </row>
-    <row r="140" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="140" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X140" s="88" t="s">
         <v>68</v>
       </c>
@@ -9691,7 +9689,7 @@
       <c r="AG140" s="80"/>
       <c r="AH140" s="80"/>
     </row>
-    <row r="141" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="141" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X141" s="88" t="s">
         <v>68</v>
       </c>
@@ -9716,7 +9714,7 @@
       <c r="AG141" s="80"/>
       <c r="AH141" s="80"/>
     </row>
-    <row r="142" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="142" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X142" s="88" t="s">
         <v>68</v>
       </c>
@@ -9741,7 +9739,7 @@
       <c r="AG142" s="80"/>
       <c r="AH142" s="80"/>
     </row>
-    <row r="143" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="143" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X143" s="88" t="s">
         <v>68</v>
       </c>
@@ -9766,7 +9764,7 @@
       <c r="AG143" s="80"/>
       <c r="AH143" s="80"/>
     </row>
-    <row r="144" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="144" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X144" s="88" t="s">
         <v>68</v>
       </c>
@@ -9791,7 +9789,7 @@
       <c r="AG144" s="80"/>
       <c r="AH144" s="80"/>
     </row>
-    <row r="145" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="145" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X145" s="88" t="s">
         <v>68</v>
       </c>
@@ -9818,7 +9816,7 @@
       <c r="AG145" s="80"/>
       <c r="AH145" s="80"/>
     </row>
-    <row r="146" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="146" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X146" s="88" t="s">
         <v>68</v>
       </c>
@@ -9843,7 +9841,7 @@
       <c r="AG146" s="80"/>
       <c r="AH146" s="80"/>
     </row>
-    <row r="147" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="147" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X147" s="88" t="s">
         <v>68</v>
       </c>
@@ -9868,7 +9866,7 @@
       <c r="AG147" s="80"/>
       <c r="AH147" s="80"/>
     </row>
-    <row r="148" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="148" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X148" s="88" t="s">
         <v>68</v>
       </c>
@@ -9893,7 +9891,7 @@
       <c r="AG148" s="80"/>
       <c r="AH148" s="80"/>
     </row>
-    <row r="149" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="149" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X149" s="88" t="s">
         <v>68</v>
       </c>
@@ -9918,7 +9916,7 @@
       <c r="AG149" s="80"/>
       <c r="AH149" s="80"/>
     </row>
-    <row r="150" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="150" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X150" s="88" t="s">
         <v>68</v>
       </c>
@@ -9943,7 +9941,7 @@
       <c r="AG150" s="80"/>
       <c r="AH150" s="80"/>
     </row>
-    <row r="151" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="151" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X151" s="88" t="s">
         <v>68</v>
       </c>
@@ -9968,7 +9966,7 @@
       <c r="AG151" s="80"/>
       <c r="AH151" s="80"/>
     </row>
-    <row r="152" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="152" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X152" s="88" t="s">
         <v>68</v>
       </c>
@@ -9993,7 +9991,7 @@
       <c r="AG152" s="80"/>
       <c r="AH152" s="80"/>
     </row>
-    <row r="153" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="153" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X153" s="88" t="s">
         <v>68</v>
       </c>
@@ -10018,7 +10016,7 @@
       <c r="AG153" s="80"/>
       <c r="AH153" s="80"/>
     </row>
-    <row r="154" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="154" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X154" s="88" t="s">
         <v>68</v>
       </c>
@@ -10043,7 +10041,7 @@
       <c r="AG154" s="80"/>
       <c r="AH154" s="80"/>
     </row>
-    <row r="155" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="155" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X155" s="88" t="s">
         <v>68</v>
       </c>
@@ -10068,7 +10066,7 @@
       <c r="AG155" s="80"/>
       <c r="AH155" s="80"/>
     </row>
-    <row r="156" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="156" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X156" s="88" t="s">
         <v>68</v>
       </c>
@@ -10095,7 +10093,7 @@
       <c r="AG156" s="80"/>
       <c r="AH156" s="80"/>
     </row>
-    <row r="157" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="157" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X157" s="88" t="s">
         <v>68</v>
       </c>
@@ -10120,7 +10118,7 @@
       <c r="AG157" s="80"/>
       <c r="AH157" s="80"/>
     </row>
-    <row r="158" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="158" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M158" s="93" t="s">
         <v>259</v>
       </c>
@@ -10165,7 +10163,7 @@
       <c r="AG158" s="80"/>
       <c r="AH158" s="80"/>
     </row>
-    <row r="159" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="159" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X159" s="88" t="s">
         <v>68</v>
       </c>
@@ -10192,7 +10190,7 @@
       <c r="AG159" s="80"/>
       <c r="AH159" s="80"/>
     </row>
-    <row r="160" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="160" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M160" s="93" t="s">
         <v>259</v>
       </c>
@@ -10235,7 +10233,7 @@
       <c r="AG160" s="80"/>
       <c r="AH160" s="80"/>
     </row>
-    <row r="161" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="161" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X161" s="88" t="s">
         <v>68</v>
       </c>
@@ -10260,7 +10258,7 @@
       <c r="AG161" s="80"/>
       <c r="AH161" s="80"/>
     </row>
-    <row r="162" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="162" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M162" s="93" t="s">
         <v>259</v>
       </c>
@@ -10305,7 +10303,7 @@
       <c r="AG162" s="80"/>
       <c r="AH162" s="80"/>
     </row>
-    <row r="163" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="163" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X163" s="88" t="s">
         <v>68</v>
       </c>
@@ -10330,7 +10328,7 @@
       <c r="AG163" s="80"/>
       <c r="AH163" s="80"/>
     </row>
-    <row r="164" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="164" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X164" s="88" t="s">
         <v>68</v>
       </c>
@@ -10355,7 +10353,7 @@
       <c r="AG164" s="80"/>
       <c r="AH164" s="80"/>
     </row>
-    <row r="165" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="165" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X165" s="88" t="s">
         <v>68</v>
       </c>
@@ -10380,7 +10378,7 @@
       <c r="AG165" s="80"/>
       <c r="AH165" s="80"/>
     </row>
-    <row r="166" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="166" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M166" s="93" t="s">
         <v>267</v>
       </c>
@@ -10425,7 +10423,7 @@
       <c r="AG166" s="80"/>
       <c r="AH166" s="80"/>
     </row>
-    <row r="167" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="167" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X167" s="88" t="s">
         <v>68</v>
       </c>
@@ -10452,7 +10450,7 @@
       <c r="AG167" s="80"/>
       <c r="AH167" s="80"/>
     </row>
-    <row r="168" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="168" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X168" s="88" t="s">
         <v>68</v>
       </c>
@@ -10477,7 +10475,7 @@
       <c r="AG168" s="80"/>
       <c r="AH168" s="80"/>
     </row>
-    <row r="169" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="169" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X169" s="88" t="s">
         <v>68</v>
       </c>
@@ -10502,7 +10500,7 @@
       <c r="AG169" s="80"/>
       <c r="AH169" s="80"/>
     </row>
-    <row r="170" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="170" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X170" s="88" t="s">
         <v>68</v>
       </c>
@@ -10527,7 +10525,7 @@
       <c r="AG170" s="80"/>
       <c r="AH170" s="80"/>
     </row>
-    <row r="171" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="171" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X171" s="88" t="s">
         <v>68</v>
       </c>
@@ -10554,7 +10552,7 @@
       <c r="AG171" s="80"/>
       <c r="AH171" s="80"/>
     </row>
-    <row r="172" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="172" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X172" s="88" t="s">
         <v>68</v>
       </c>
@@ -10579,7 +10577,7 @@
       <c r="AG172" s="80"/>
       <c r="AH172" s="80"/>
     </row>
-    <row r="173" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="173" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X173" s="88" t="s">
         <v>68</v>
       </c>
@@ -10604,7 +10602,7 @@
       <c r="AG173" s="80"/>
       <c r="AH173" s="80"/>
     </row>
-    <row r="174" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="174" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X174" s="88" t="s">
         <v>68</v>
       </c>
@@ -10629,7 +10627,7 @@
       <c r="AG174" s="80"/>
       <c r="AH174" s="80"/>
     </row>
-    <row r="175" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="175" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X175" s="88" t="s">
         <v>68</v>
       </c>
@@ -10656,7 +10654,7 @@
       <c r="AG175" s="80"/>
       <c r="AH175" s="80"/>
     </row>
-    <row r="176" spans="13:34" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X176" s="88" t="s">
         <v>68</v>
       </c>
@@ -10690,7 +10688,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'STM Overview'!A1" display="Back To Overview" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="'STM Overview'!A1" display="Back To Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10698,28 +10696,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
@@ -10765,10 +10761,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10918,19 +10935,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0F41AE-379F-4050-B270-950FF7401E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10954,9 +10967,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0F41AE-379F-4050-B270-950FF7401E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/STM - Timekeeping - CUR_TE_ALLOW.xlsx
+++ b/STM - Timekeeping - CUR_TE_ALLOW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="STM Overview" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="SQL" sheetId="7" r:id="rId6"/>
     <sheet name="TEST PLAN" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Change Log'!$C$3:$C$22</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="337">
   <si>
     <t>Project Summary</t>
   </si>
@@ -1077,6 +1079,12 @@
   </si>
   <si>
     <t>sssss</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbbb</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2749,7 +2757,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2765,7 +2773,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2781,7 +2789,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2797,7 +2805,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2813,7 +2821,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2829,7 +2837,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2845,7 +2853,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2861,7 +2869,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2877,7 +2885,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2893,7 +2901,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2909,7 +2917,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3475,6 +3483,26 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10627,7 +10655,7 @@
       <c r="AG174" s="80"/>
       <c r="AH174" s="80"/>
     </row>
-    <row r="175" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="13:34" x14ac:dyDescent="0.35">
       <c r="X175" s="88" t="s">
         <v>68</v>
       </c>
@@ -10654,7 +10682,7 @@
       <c r="AG175" s="80"/>
       <c r="AH175" s="80"/>
     </row>
-    <row r="176" spans="13:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:34" x14ac:dyDescent="0.35">
       <c r="X176" s="88" t="s">
         <v>68</v>
       </c>
@@ -10765,7 +10793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -10779,16 +10807,25 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A596A571FE34DC4EB8E10253C702D606" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a02b6242c4483268d28fc7cccdb2e6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584271b3-0d3f-48c2-9bae-a8eb63bab6e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e64877890034c7de70674051e5c66c5" ns2:_="">
     <xsd:import namespace="584271b3-0d3f-48c2-9bae-a8eb63bab6e1"/>
@@ -10934,6 +10971,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10941,14 +10987,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E34AD7-B4BD-4589-8EB3-D006CB33A73C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10966,6 +11004,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0F41AE-379F-4050-B270-950FF7401E62}">
   <ds:schemaRefs>
